--- a/biology/Zoologie/Eopsetta/Eopsetta.xlsx
+++ b/biology/Zoologie/Eopsetta/Eopsetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eopsetta est un genre de poissons de la famille des Pleuronectidae.
 Comme tous les poissons de la famille des Pleuronectidae, les poissons du genre Eopsetta possèdent un corps aplati asymétrique et leurs yeux sont sur un même côté du corps.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (13 fev. 2016)[1] et World Register of Marine Species                               (13 fev. 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (13 fev. 2016) et World Register of Marine Species                               (13 fev. 2016) :
 Eopsetta grigorjewi (Herzenstein, 1890)
 Eopsetta jordani (Lockington, 1879) - carlottin pétrale ou plie de Californie</t>
         </is>
